--- a/xlsx/俄罗斯_intext.xlsx
+++ b/xlsx/俄罗斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1747">
   <si>
     <t>俄罗斯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_俄罗斯</t>
+    <t>体育运动_体育运动_明成祖_俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
@@ -3404,1546 +3404,1576 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>聯合國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>聯合國會員國列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9</t>
+  </si>
+  <si>
+    <t>阿布哈兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>顿涅茨克人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%94%98%E6%96%AF%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>卢甘斯克人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>纳戈尔诺-卡拉巴赫共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
+  </si>
+  <si>
+    <t>南奥塞梯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>德涅斯特河沿岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞克羅提利與德凱利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>奥兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
+  </si>
+  <si>
+    <t>扬马延</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>根西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>圣座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>马耳他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中華民國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>臺灣地區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
+  </si>
+  <si>
+    <t>阿尔扎赫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞美尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英屬印度洋領地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>圣诞岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>科科斯（基林）群島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
+  </si>
+  <si>
+    <t>澳門</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>联合国安全理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%90%A6%E5%86%B3%E6%9D%83</t>
+  </si>
+  <si>
+    <t>联合国安全理事会否决权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>联合国安全理事会决议</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Nations_Military_Observer</t>
+  </si>
+  <si>
+    <t>en-United Nations Military Observer</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Peacebuilding_Commission</t>
+  </si>
+  <si>
+    <t>en-Peacebuilding Commission</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Nations_Security_Council_Counter-Terrorism_Committee</t>
+  </si>
+  <si>
+    <t>en-United Nations Security Council Counter-Terrorism Committee</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
+  </si>
+  <si>
+    <t>en-History of United Nations peacekeeping</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%86%9B</t>
+  </si>
+  <si>
+    <t>联合国军</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unified_Task_Force</t>
+  </si>
+  <si>
+    <t>en-Unified Task Force</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>聯合國安全理事會否決權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>雅尔塔会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A2758%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>联合国大会2758号决议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>中國與聯合國關係</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>四國聯盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>联合国改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
+  </si>
+  <si>
+    <t>中華民國 (大陸時期)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>衣索比亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>八国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E5%90%8C%E4%BA%94%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>八国集团同五国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/20%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>20国集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E7%8B%AC%E8%81%94%E4%BD%93%E4%BB%A3%E8%A1%A8%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>奥林匹克运动会独联体代表团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%81%AF%E9%AB%94%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>獨聯體國家足球隊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%81%94%E4%BD%93%E6%9D%AF</t>
+  </si>
+  <si>
+    <t>独联体杯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/CISFTA</t>
+  </si>
+  <si>
+    <t>CISFTA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
+  </si>
+  <si>
+    <t>歐亞經濟共同體</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E8%88%AA%E7%A9%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>州際航空委員會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里蘭卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>东盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%94%E5%9B%BD%E4%BC%9A%E6%99%A4%E6%9C%BA%E5%88%B6</t>
+  </si>
+  <si>
+    <t>上海五国会晤机制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E7%B2%BE%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>上海精神</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%82%A1%E5%8A%BF%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>三股势力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>亚洲太平洋经济合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
+  </si>
+  <si>
+    <t>中華臺北</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>伊斯兰合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布吉納法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>马里共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奈及利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏丹共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>蘇利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中非共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律賓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>莫洛民族解放陣線</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
+  </si>
+  <si>
+    <t>en-Parliamentary Union of the OIC Member States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Islamic_Conference_Youth_Forum_for_Dialogue_and_Cooperation</t>
+  </si>
+  <si>
+    <t>en-Islamic Conference Youth Forum for Dialogue and Cooperation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_Russia</t>
+  </si>
+  <si>
+    <t>en-Foreign relations of Russia</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2009年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2010年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2011年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2012年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2013年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2014年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2015年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2016年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>2017年金砖国家峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%EF%BC%8D%E5%B7%B4%E8%A5%BF%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>中国－巴西关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%EF%BC%8D%E5%8D%B0%E5%BA%A6%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>巴西－印度关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brazil%E2%80%93Russia_relations</t>
+  </si>
+  <si>
+    <t>en-Brazil–Russia relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brazil%E2%80%93South_Africa_relations</t>
+  </si>
+  <si>
+    <t>en-Brazil–South Africa relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E5%8D%B0%E5%BA%A6%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>中國－印度關係</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BF%84%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>中俄关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%EF%BC%8D%E5%8D%97%E9%9D%9E%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>中国－南非关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/India%E2%80%93Russia_relations</t>
+  </si>
+  <si>
+    <t>en-India–Russia relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/India%E2%80%93South_Africa_relations</t>
+  </si>
+  <si>
+    <t>en-India–South Africa relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%EF%BC%8D%E5%8D%97%E9%9D%9E%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>俄罗斯－南非关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>金砖四国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>新开发银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>金砖国家领导人列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%A4%A7%E5%AD%A6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>金砖国家大学联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>金磚國家U-17足球盃賽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>2016年金磚國家U-17足球盃賽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>马其顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9</t>
-  </si>
-  <si>
-    <t>阿布哈兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>顿涅茨克人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%94%98%E6%96%AF%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>卢甘斯克人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>纳戈尔诺-卡拉巴赫共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
-  </si>
-  <si>
-    <t>南奥塞梯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>德涅斯特河沿岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>奥兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
-  </si>
-  <si>
-    <t>扬马延</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>根西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加泰罗尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>圣座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>马耳他骑士团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>臺灣地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>汶莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>印尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>中亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
-  </si>
-  <si>
-    <t>阿尔扎赫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英屬印度洋領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>圣诞岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>科科斯（基林）群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
-  </si>
-  <si>
-    <t>澳門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>联合国安全理事会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%90%A6%E5%86%B3%E6%9D%83</t>
-  </si>
-  <si>
-    <t>联合国安全理事会否决权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>联合国安全理事会决议</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Nations_Military_Observer</t>
-  </si>
-  <si>
-    <t>en-United Nations Military Observer</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Peacebuilding_Commission</t>
-  </si>
-  <si>
-    <t>en-Peacebuilding Commission</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Nations_Security_Council_Counter-Terrorism_Committee</t>
-  </si>
-  <si>
-    <t>en-United Nations Security Council Counter-Terrorism Committee</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
-  </si>
-  <si>
-    <t>en-History of United Nations peacekeeping</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%86%9B</t>
-  </si>
-  <si>
-    <t>联合国军</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unified_Task_Force</t>
-  </si>
-  <si>
-    <t>en-Unified Task Force</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>雅尔塔会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A2758%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>联合国大会2758号决议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>中國與聯合國關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>四國聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>联合国改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
-  </si>
-  <si>
-    <t>中華民國 (大陸時期)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>衣索比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>八国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%9B%BD%E9%9B%86%E5%9B%A2%E5%90%8C%E4%BA%94%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>八国集团同五国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/20%E5%9B%BD%E9%9B%86%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>20国集团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E7%8B%AC%E8%81%94%E4%BD%93%E4%BB%A3%E8%A1%A8%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>奥林匹克运动会独联体代表团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%81%AF%E9%AB%94%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>獨聯體國家足球隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%81%94%E4%BD%93%E6%9D%AF</t>
-  </si>
-  <si>
-    <t>独联体杯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/CISFTA</t>
-  </si>
-  <si>
-    <t>CISFTA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
-  </si>
-  <si>
-    <t>歐亞經濟共同體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E8%88%AA%E7%A9%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>州際航空委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>东盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%94%E5%9B%BD%E4%BC%9A%E6%99%A4%E6%9C%BA%E5%88%B6</t>
-  </si>
-  <si>
-    <t>上海五国会晤机制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E7%B2%BE%E7%A5%9E</t>
-  </si>
-  <si>
-    <t>上海精神</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%82%A1%E5%8A%BF%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>三股势力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>亚洲太平洋经济合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
-  </si>
-  <si>
-    <t>中華臺北</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>伊斯兰合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布吉納法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>马里共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奈及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>苏丹共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>莫洛民族解放陣線</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
-  </si>
-  <si>
-    <t>en-Parliamentary Union of the OIC Member States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Islamic_Conference_Youth_Forum_for_Dialogue_and_Cooperation</t>
-  </si>
-  <si>
-    <t>en-Islamic Conference Youth Forum for Dialogue and Cooperation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_relations_of_Russia</t>
-  </si>
-  <si>
-    <t>en-Foreign relations of Russia</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2009年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2010年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2011年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2012年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2013年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2014年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2015年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2016年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%B3%B0%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>2017年金砖国家峰会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%EF%BC%8D%E5%B7%B4%E8%A5%BF%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>中国－巴西关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%EF%BC%8D%E5%8D%B0%E5%BA%A6%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>巴西－印度关系</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brazil%E2%80%93Russia_relations</t>
-  </si>
-  <si>
-    <t>en-Brazil–Russia relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brazil%E2%80%93South_Africa_relations</t>
-  </si>
-  <si>
-    <t>en-Brazil–South Africa relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E5%8D%B0%E5%BA%A6%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>中國－印度關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BF%84%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>中俄关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%EF%BC%8D%E5%8D%97%E9%9D%9E%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>中国－南非关系</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/India%E2%80%93Russia_relations</t>
-  </si>
-  <si>
-    <t>en-India–Russia relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/India%E2%80%93South_Africa_relations</t>
-  </si>
-  <si>
-    <t>en-India–South Africa relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%EF%BC%8D%E5%8D%97%E9%9D%9E%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>俄罗斯－南非关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>金砖四国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>新开发银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E9%A2%86%E5%AF%BC%E4%BA%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>金砖国家领导人列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%BD%E5%AE%B6%E5%A4%A7%E5%AD%A6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>金砖国家大学联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>金磚國家U-17足球盃賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>2016年金磚國家U-17足球盃賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -5574,7 +5604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I935"/>
+  <dimension ref="A1:I941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7600,7 +7630,7 @@
         <v>136</v>
       </c>
       <c r="G70" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -7687,7 +7717,7 @@
         <v>140</v>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -11051,7 +11081,7 @@
         <v>366</v>
       </c>
       <c r="G189" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -11515,7 +11545,7 @@
         <v>394</v>
       </c>
       <c r="G205" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -18910,7 +18940,7 @@
         <v>858</v>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -23318,7 +23348,7 @@
         <v>1130</v>
       </c>
       <c r="G612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -23347,7 +23377,7 @@
         <v>1132</v>
       </c>
       <c r="G613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H613" t="s">
         <v>4</v>
@@ -23376,7 +23406,7 @@
         <v>1134</v>
       </c>
       <c r="G614" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -23405,7 +23435,7 @@
         <v>1136</v>
       </c>
       <c r="G615" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -23463,7 +23493,7 @@
         <v>1140</v>
       </c>
       <c r="G617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -23521,7 +23551,7 @@
         <v>1144</v>
       </c>
       <c r="G619" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -23550,7 +23580,7 @@
         <v>1146</v>
       </c>
       <c r="G620" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H620" t="s">
         <v>4</v>
@@ -23637,7 +23667,7 @@
         <v>1152</v>
       </c>
       <c r="G623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H623" t="s">
         <v>4</v>
@@ -23666,7 +23696,7 @@
         <v>1154</v>
       </c>
       <c r="G624" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
@@ -23695,7 +23725,7 @@
         <v>1156</v>
       </c>
       <c r="G625" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -23724,7 +23754,7 @@
         <v>1158</v>
       </c>
       <c r="G626" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H626" t="s">
         <v>4</v>
@@ -23753,7 +23783,7 @@
         <v>1160</v>
       </c>
       <c r="G627" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H627" t="s">
         <v>4</v>
@@ -23782,7 +23812,7 @@
         <v>1162</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -23811,7 +23841,7 @@
         <v>1164</v>
       </c>
       <c r="G629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -23834,13 +23864,13 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1165</v>
+        <v>257</v>
       </c>
       <c r="F630" t="s">
-        <v>1166</v>
+        <v>258</v>
       </c>
       <c r="G630" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -23863,13 +23893,13 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F631" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G631" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -23892,13 +23922,13 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F632" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G632" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -23921,10 +23951,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F633" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -23950,13 +23980,13 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F634" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -23979,13 +24009,13 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F635" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G635" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -24008,13 +24038,13 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F636" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G636" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H636" t="s">
         <v>4</v>
@@ -24037,13 +24067,13 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F637" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G637" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -24066,10 +24096,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F638" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G638" t="n">
         <v>2</v>
@@ -24095,13 +24125,13 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F639" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H639" t="s">
         <v>4</v>
@@ -24124,13 +24154,13 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F640" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G640" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H640" t="s">
         <v>4</v>
@@ -24153,10 +24183,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F641" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G641" t="n">
         <v>3</v>
@@ -24182,13 +24212,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F642" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G642" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -24211,13 +24241,13 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F643" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -24240,13 +24270,13 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F644" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -24269,13 +24299,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F645" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G645" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -24298,13 +24328,13 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F646" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G646" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -24327,10 +24357,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F647" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G647" t="n">
         <v>3</v>
@@ -24356,13 +24386,13 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F648" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -24385,13 +24415,13 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F649" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G649" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H649" t="s">
         <v>4</v>
@@ -24414,13 +24444,13 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F650" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G650" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H650" t="s">
         <v>4</v>
@@ -24443,13 +24473,13 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F651" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -24472,13 +24502,13 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F652" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G652" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -24501,13 +24531,13 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F653" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G653" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -24530,10 +24560,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F654" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -24559,10 +24589,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F655" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -24588,10 +24618,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F656" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -24617,10 +24647,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F657" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G657" t="n">
         <v>2</v>
@@ -24646,10 +24676,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F658" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -24675,10 +24705,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F659" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -24704,10 +24734,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F660" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -24733,10 +24763,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F661" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G661" t="n">
         <v>2</v>
@@ -24762,10 +24792,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F662" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -24791,13 +24821,13 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F663" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -24820,13 +24850,13 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F664" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -24849,13 +24879,13 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>137</v>
+        <v>1233</v>
       </c>
       <c r="F665" t="s">
-        <v>138</v>
+        <v>1234</v>
       </c>
       <c r="G665" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H665" t="s">
         <v>4</v>
@@ -24913,7 +24943,7 @@
         <v>1238</v>
       </c>
       <c r="G667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -24942,7 +24972,7 @@
         <v>1240</v>
       </c>
       <c r="G668" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -24994,13 +25024,13 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1243</v>
+        <v>137</v>
       </c>
       <c r="F670" t="s">
-        <v>1244</v>
+        <v>138</v>
       </c>
       <c r="G670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -25023,13 +25053,13 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F671" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H671" t="s">
         <v>4</v>
@@ -25052,10 +25082,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F672" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G672" t="n">
         <v>2</v>
@@ -25081,13 +25111,13 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F673" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G673" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -25110,13 +25140,13 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F674" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H674" t="s">
         <v>4</v>
@@ -25139,10 +25169,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F675" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G675" t="n">
         <v>3</v>
@@ -25168,10 +25198,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F676" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -25197,13 +25227,13 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F677" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G677" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -25226,13 +25256,13 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F678" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -25255,13 +25285,13 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F679" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G679" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H679" t="s">
         <v>4</v>
@@ -25284,13 +25314,13 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F680" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G680" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -25313,10 +25343,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>187</v>
+        <v>1263</v>
       </c>
       <c r="F681" t="s">
-        <v>188</v>
+        <v>1264</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -25377,7 +25407,7 @@
         <v>1268</v>
       </c>
       <c r="G683" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -25435,7 +25465,7 @@
         <v>1272</v>
       </c>
       <c r="G685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H685" t="s">
         <v>4</v>
@@ -25458,13 +25488,13 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1273</v>
+        <v>187</v>
       </c>
       <c r="F686" t="s">
-        <v>1274</v>
+        <v>188</v>
       </c>
       <c r="G686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H686" t="s">
         <v>4</v>
@@ -25487,13 +25517,13 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F687" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G687" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H687" t="s">
         <v>4</v>
@@ -25516,10 +25546,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F688" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -25545,10 +25575,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F689" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -25574,10 +25604,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F690" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -25603,13 +25633,13 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F691" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -25632,13 +25662,13 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1207</v>
+        <v>1283</v>
       </c>
       <c r="F692" t="s">
-        <v>1208</v>
+        <v>1284</v>
       </c>
       <c r="G692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H692" t="s">
         <v>4</v>
@@ -25696,7 +25726,7 @@
         <v>1288</v>
       </c>
       <c r="G694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -25719,10 +25749,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1213</v>
+        <v>1289</v>
       </c>
       <c r="F695" t="s">
-        <v>1214</v>
+        <v>1290</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -25748,13 +25778,13 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F696" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="G696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -25777,10 +25807,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1291</v>
+        <v>1213</v>
       </c>
       <c r="F697" t="s">
-        <v>1292</v>
+        <v>1214</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -25864,10 +25894,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1297</v>
+        <v>1219</v>
       </c>
       <c r="F700" t="s">
-        <v>1298</v>
+        <v>1220</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -25893,13 +25923,13 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F701" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -25922,10 +25952,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F702" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -25951,13 +25981,13 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F703" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G703" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H703" t="s">
         <v>4</v>
@@ -25980,13 +26010,13 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F704" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H704" t="s">
         <v>4</v>
@@ -26009,10 +26039,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F705" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -26038,10 +26068,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F706" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -26067,10 +26097,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F707" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -26096,13 +26126,13 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F708" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G708" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -26125,10 +26155,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F709" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -26154,10 +26184,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F710" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -26183,13 +26213,13 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F711" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G711" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -26212,10 +26242,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F712" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -26241,13 +26271,13 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F713" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G713" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -26270,13 +26300,13 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F714" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G714" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -26299,13 +26329,13 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F715" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -26328,13 +26358,13 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F716" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G716" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H716" t="s">
         <v>4</v>
@@ -26357,13 +26387,13 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F717" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -26386,13 +26416,13 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F718" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G718" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -26415,13 +26445,13 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F719" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G719" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H719" t="s">
         <v>4</v>
@@ -26444,13 +26474,13 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F720" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G720" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -26473,10 +26503,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F721" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G721" t="n">
         <v>2</v>
@@ -26502,10 +26532,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F722" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G722" t="n">
         <v>2</v>
@@ -26531,13 +26561,13 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F723" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -26560,10 +26590,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F724" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -26589,13 +26619,13 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F725" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G725" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H725" t="s">
         <v>4</v>
@@ -26618,13 +26648,13 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F726" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G726" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H726" t="s">
         <v>4</v>
@@ -26647,13 +26677,13 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F727" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G727" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H727" t="s">
         <v>4</v>
@@ -26676,13 +26706,13 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F728" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G728" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H728" t="s">
         <v>4</v>
@@ -26705,13 +26735,13 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F729" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G729" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H729" t="s">
         <v>4</v>
@@ -26734,13 +26764,13 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F730" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G730" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H730" t="s">
         <v>4</v>
@@ -26763,13 +26793,13 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F731" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G731" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -26792,13 +26822,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F732" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G732" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -26821,13 +26851,13 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F733" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G733" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -26850,13 +26880,13 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F734" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G734" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -26879,13 +26909,13 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F735" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G735" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -26908,13 +26938,13 @@
         <v>735</v>
       </c>
       <c r="E736" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F736" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G736" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -26937,10 +26967,10 @@
         <v>736</v>
       </c>
       <c r="E737" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F737" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G737" t="n">
         <v>2</v>
@@ -26966,10 +26996,10 @@
         <v>737</v>
       </c>
       <c r="E738" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F738" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G738" t="n">
         <v>2</v>
@@ -26995,13 +27025,13 @@
         <v>738</v>
       </c>
       <c r="E739" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F739" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H739" t="s">
         <v>4</v>
@@ -27024,13 +27054,13 @@
         <v>739</v>
       </c>
       <c r="E740" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F740" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -27053,10 +27083,10 @@
         <v>740</v>
       </c>
       <c r="E741" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F741" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G741" t="n">
         <v>2</v>
@@ -27082,10 +27112,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F742" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G742" t="n">
         <v>2</v>
@@ -27111,10 +27141,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F743" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G743" t="n">
         <v>2</v>
@@ -27140,10 +27170,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F744" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G744" t="n">
         <v>2</v>
@@ -27169,10 +27199,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F745" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G745" t="n">
         <v>3</v>
@@ -27198,13 +27228,13 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F746" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H746" t="s">
         <v>4</v>
@@ -27227,10 +27257,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F747" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G747" t="n">
         <v>2</v>
@@ -27256,13 +27286,13 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F748" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -27285,13 +27315,13 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>141</v>
+        <v>1393</v>
       </c>
       <c r="F749" t="s">
-        <v>142</v>
+        <v>1394</v>
       </c>
       <c r="G749" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -27314,13 +27344,13 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1281</v>
+        <v>1395</v>
       </c>
       <c r="F750" t="s">
-        <v>1282</v>
+        <v>1396</v>
       </c>
       <c r="G750" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -27343,10 +27373,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F751" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -27372,13 +27402,13 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F752" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -27401,10 +27431,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F753" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -27430,13 +27460,13 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1401</v>
+        <v>141</v>
       </c>
       <c r="F754" t="s">
-        <v>1402</v>
+        <v>142</v>
       </c>
       <c r="G754" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -27459,10 +27489,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1403</v>
+        <v>1287</v>
       </c>
       <c r="F755" t="s">
-        <v>1404</v>
+        <v>1288</v>
       </c>
       <c r="G755" t="n">
         <v>2</v>
@@ -27488,10 +27518,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>187</v>
+        <v>1289</v>
       </c>
       <c r="F756" t="s">
-        <v>188</v>
+        <v>1290</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -27517,13 +27547,13 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>135</v>
+        <v>1403</v>
       </c>
       <c r="F757" t="s">
-        <v>136</v>
+        <v>1404</v>
       </c>
       <c r="G757" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -27552,7 +27582,7 @@
         <v>1406</v>
       </c>
       <c r="G758" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -27610,7 +27640,7 @@
         <v>1410</v>
       </c>
       <c r="G760" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -27639,7 +27669,7 @@
         <v>1412</v>
       </c>
       <c r="G761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -27662,10 +27692,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1413</v>
+        <v>187</v>
       </c>
       <c r="F762" t="s">
-        <v>1414</v>
+        <v>188</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27691,13 +27721,13 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1415</v>
+        <v>135</v>
       </c>
       <c r="F763" t="s">
-        <v>1416</v>
+        <v>136</v>
       </c>
       <c r="G763" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -27720,13 +27750,13 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="F764" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -27749,10 +27779,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="F765" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -27778,13 +27808,13 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="F766" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G766" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -27807,10 +27837,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="F767" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -27836,10 +27866,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="F768" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -27865,10 +27895,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="F769" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -27894,10 +27924,10 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="F770" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -27923,10 +27953,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="F771" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -27952,10 +27982,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="F772" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
@@ -27981,13 +28011,13 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="F773" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G773" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H773" t="s">
         <v>4</v>
@@ -28010,13 +28040,13 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1127</v>
+        <v>1433</v>
       </c>
       <c r="F774" t="s">
-        <v>1128</v>
+        <v>1434</v>
       </c>
       <c r="G774" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -28039,10 +28069,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1405</v>
+        <v>1435</v>
       </c>
       <c r="F775" t="s">
-        <v>1406</v>
+        <v>1436</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -28074,7 +28104,7 @@
         <v>1438</v>
       </c>
       <c r="G776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H776" t="s">
         <v>4</v>
@@ -28103,7 +28133,7 @@
         <v>1440</v>
       </c>
       <c r="G777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H777" t="s">
         <v>4</v>
@@ -28161,7 +28191,7 @@
         <v>1444</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -28184,13 +28214,13 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1445</v>
+        <v>1127</v>
       </c>
       <c r="F780" t="s">
-        <v>1446</v>
+        <v>1128</v>
       </c>
       <c r="G780" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -28213,10 +28243,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="F781" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -28242,13 +28272,13 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F782" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G782" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -28271,13 +28301,13 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F783" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G783" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H783" t="s">
         <v>4</v>
@@ -28300,10 +28330,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F784" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -28329,10 +28359,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F785" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -28358,13 +28388,13 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F786" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G786" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -28387,13 +28417,13 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1457</v>
+        <v>1417</v>
       </c>
       <c r="F787" t="s">
-        <v>1458</v>
+        <v>1418</v>
       </c>
       <c r="G787" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -28416,13 +28446,13 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="F788" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="G788" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -28445,10 +28475,10 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="F789" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -28474,10 +28504,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="F790" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -28503,13 +28533,13 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="F791" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="G791" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -28532,13 +28562,13 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>957</v>
+        <v>1463</v>
       </c>
       <c r="F792" t="s">
-        <v>958</v>
+        <v>1464</v>
       </c>
       <c r="G792" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -28561,13 +28591,13 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F793" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G793" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -28590,13 +28620,13 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F794" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -28619,10 +28649,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F795" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -28648,10 +28678,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F796" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -28677,13 +28707,13 @@
         <v>796</v>
       </c>
       <c r="E797" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F797" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G797" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -28706,13 +28736,13 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1477</v>
+        <v>957</v>
       </c>
       <c r="F798" t="s">
-        <v>1478</v>
+        <v>958</v>
       </c>
       <c r="G798" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -28735,10 +28765,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="F799" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -28764,10 +28794,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="F800" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G800" t="n">
         <v>1</v>
@@ -28793,10 +28823,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="F801" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -28822,10 +28852,10 @@
         <v>801</v>
       </c>
       <c r="E802" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="F802" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="G802" t="n">
         <v>1</v>
@@ -28851,10 +28881,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="F803" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="G803" t="n">
         <v>1</v>
@@ -28880,10 +28910,10 @@
         <v>803</v>
       </c>
       <c r="E804" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F804" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -28909,10 +28939,10 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F805" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G805" t="n">
         <v>1</v>
@@ -28938,10 +28968,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1401</v>
+        <v>1489</v>
       </c>
       <c r="F806" t="s">
-        <v>1402</v>
+        <v>1490</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -28967,13 +28997,13 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F807" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H807" t="s">
         <v>4</v>
@@ -28996,10 +29026,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F808" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -29025,10 +29055,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F809" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -29054,10 +29084,10 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F810" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -29083,10 +29113,10 @@
         <v>810</v>
       </c>
       <c r="E811" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F811" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -29112,10 +29142,10 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1503</v>
+        <v>1409</v>
       </c>
       <c r="F812" t="s">
-        <v>1504</v>
+        <v>1410</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -29141,13 +29171,13 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="F813" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="G813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -29170,10 +29200,10 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="F814" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="G814" t="n">
         <v>1</v>
@@ -29199,10 +29229,10 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="F815" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="G815" t="n">
         <v>1</v>
@@ -29228,10 +29258,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F816" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -29257,10 +29287,10 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="F817" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -29286,10 +29316,10 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F818" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -29315,10 +29345,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F819" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -29344,10 +29374,10 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="F820" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -29373,10 +29403,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="F821" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -29402,10 +29432,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="F822" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="G822" t="n">
         <v>1</v>
@@ -29431,13 +29461,13 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="F823" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="G823" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -29460,10 +29490,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="F824" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -29489,10 +29519,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="F825" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -29518,10 +29548,10 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="F826" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -29547,13 +29577,13 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F827" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="G827" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H827" t="s">
         <v>4</v>
@@ -29576,10 +29606,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="F828" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -29605,13 +29635,13 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="F829" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="G829" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -29634,10 +29664,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="F830" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -29663,10 +29693,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="F831" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -29692,10 +29722,10 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="F832" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -29721,13 +29751,13 @@
         <v>832</v>
       </c>
       <c r="E833" t="s">
-        <v>1367</v>
+        <v>1541</v>
       </c>
       <c r="F833" t="s">
-        <v>1368</v>
+        <v>1542</v>
       </c>
       <c r="G833" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H833" t="s">
         <v>4</v>
@@ -29750,10 +29780,10 @@
         <v>833</v>
       </c>
       <c r="E834" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F834" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="G834" t="n">
         <v>1</v>
@@ -29779,10 +29809,10 @@
         <v>834</v>
       </c>
       <c r="E835" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F835" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="G835" t="n">
         <v>1</v>
@@ -29808,10 +29838,10 @@
         <v>835</v>
       </c>
       <c r="E836" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F836" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="G836" t="n">
         <v>1</v>
@@ -29837,10 +29867,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F837" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="G837" t="n">
         <v>1</v>
@@ -29866,10 +29896,10 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F838" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="G838" t="n">
         <v>1</v>
@@ -29895,10 +29925,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1555</v>
+        <v>1375</v>
       </c>
       <c r="F839" t="s">
-        <v>1556</v>
+        <v>1376</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -29924,10 +29954,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="F840" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -29953,10 +29983,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1167</v>
+        <v>1555</v>
       </c>
       <c r="F841" t="s">
-        <v>1168</v>
+        <v>1556</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -29982,10 +30012,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F842" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -30011,10 +30041,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1393</v>
+        <v>1559</v>
       </c>
       <c r="F843" t="s">
-        <v>1394</v>
+        <v>1560</v>
       </c>
       <c r="G843" t="n">
         <v>1</v>
@@ -30127,10 +30157,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1567</v>
+        <v>1173</v>
       </c>
       <c r="F847" t="s">
-        <v>1568</v>
+        <v>1174</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -30156,10 +30186,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="F848" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -30185,10 +30215,10 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1571</v>
+        <v>1401</v>
       </c>
       <c r="F849" t="s">
-        <v>1572</v>
+        <v>1402</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -30214,10 +30244,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="F850" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -30243,10 +30273,10 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="F851" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -30272,10 +30302,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="F852" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -30301,10 +30331,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="F853" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -30330,10 +30360,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="F854" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -30359,10 +30389,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="F855" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -30388,10 +30418,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="F856" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -30417,10 +30447,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="F857" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -30446,10 +30476,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="F858" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -30475,10 +30505,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="F859" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -30504,10 +30534,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="F860" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -30533,10 +30563,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="F861" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -30562,10 +30592,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="F862" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -30591,10 +30621,10 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="F863" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="G863" t="n">
         <v>1</v>
@@ -30620,10 +30650,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="F864" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -30649,10 +30679,10 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="F865" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="G865" t="n">
         <v>1</v>
@@ -30678,10 +30708,10 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="F866" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -30707,10 +30737,10 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F867" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -30736,10 +30766,10 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="F868" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -30765,10 +30795,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="F869" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -30794,10 +30824,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="F870" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -30823,10 +30853,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="F871" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -30852,10 +30882,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="F872" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -30881,10 +30911,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="F873" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -30910,10 +30940,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="F874" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -30939,10 +30969,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F875" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -30968,10 +30998,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="F876" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -30997,10 +31027,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F877" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -31026,10 +31056,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="F878" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -31055,13 +31085,13 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F879" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="G879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -31084,10 +31114,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1131</v>
+        <v>1629</v>
       </c>
       <c r="F880" t="s">
-        <v>1132</v>
+        <v>1630</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -31113,10 +31143,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F881" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -31142,10 +31172,10 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="F882" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="G882" t="n">
         <v>1</v>
@@ -31171,10 +31201,10 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F883" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -31200,10 +31230,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F884" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="G884" t="n">
         <v>1</v>
@@ -31229,13 +31259,13 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F885" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="G885" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -31258,10 +31288,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="F886" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -31287,10 +31317,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F887" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -31316,10 +31346,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F888" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -31345,10 +31375,10 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="F889" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -31374,10 +31404,10 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F890" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="G890" t="n">
         <v>1</v>
@@ -31403,10 +31433,10 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F891" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="G891" t="n">
         <v>1</v>
@@ -31432,10 +31462,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F892" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -31461,10 +31491,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F893" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -31490,10 +31520,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F894" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -31519,10 +31549,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F895" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -31548,13 +31578,13 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F896" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="G896" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H896" t="s">
         <v>4</v>
@@ -31577,10 +31607,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F897" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -31606,10 +31636,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F898" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -31635,10 +31665,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F899" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -31664,10 +31694,10 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1295</v>
+        <v>1667</v>
       </c>
       <c r="F900" t="s">
-        <v>1296</v>
+        <v>1668</v>
       </c>
       <c r="G900" t="n">
         <v>1</v>
@@ -31728,7 +31758,7 @@
         <v>1672</v>
       </c>
       <c r="G902" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -31838,13 +31868,13 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1679</v>
+        <v>1303</v>
       </c>
       <c r="F906" t="s">
-        <v>1680</v>
+        <v>1304</v>
       </c>
       <c r="G906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H906" t="s">
         <v>4</v>
@@ -31867,10 +31897,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F907" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -31896,10 +31926,10 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F908" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G908" t="n">
         <v>1</v>
@@ -31925,10 +31955,10 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F909" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="G909" t="n">
         <v>1</v>
@@ -31954,10 +31984,10 @@
         <v>909</v>
       </c>
       <c r="E910" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F910" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -31983,10 +32013,10 @@
         <v>910</v>
       </c>
       <c r="E911" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F911" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="G911" t="n">
         <v>1</v>
@@ -32012,13 +32042,13 @@
         <v>911</v>
       </c>
       <c r="E912" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F912" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="G912" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H912" t="s">
         <v>4</v>
@@ -32041,10 +32071,10 @@
         <v>912</v>
       </c>
       <c r="E913" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F913" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="G913" t="n">
         <v>1</v>
@@ -32070,10 +32100,10 @@
         <v>913</v>
       </c>
       <c r="E914" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F914" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -32099,10 +32129,10 @@
         <v>914</v>
       </c>
       <c r="E915" t="s">
-        <v>1277</v>
+        <v>1695</v>
       </c>
       <c r="F915" t="s">
-        <v>1278</v>
+        <v>1696</v>
       </c>
       <c r="G915" t="n">
         <v>1</v>
@@ -32273,10 +32303,10 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1707</v>
+        <v>1285</v>
       </c>
       <c r="F921" t="s">
-        <v>1708</v>
+        <v>1286</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -32302,10 +32332,10 @@
         <v>921</v>
       </c>
       <c r="E922" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F922" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -32331,10 +32361,10 @@
         <v>922</v>
       </c>
       <c r="E923" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F923" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="G923" t="n">
         <v>1</v>
@@ -32360,10 +32390,10 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F924" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G924" t="n">
         <v>1</v>
@@ -32389,10 +32419,10 @@
         <v>924</v>
       </c>
       <c r="E925" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F925" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -32418,10 +32448,10 @@
         <v>925</v>
       </c>
       <c r="E926" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F926" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="G926" t="n">
         <v>1</v>
@@ -32447,13 +32477,13 @@
         <v>926</v>
       </c>
       <c r="E927" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F927" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="G927" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -32476,10 +32506,10 @@
         <v>927</v>
       </c>
       <c r="E928" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F928" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -32505,10 +32535,10 @@
         <v>928</v>
       </c>
       <c r="E929" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F929" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -32534,10 +32564,10 @@
         <v>929</v>
       </c>
       <c r="E930" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F930" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="G930" t="n">
         <v>1</v>
@@ -32563,10 +32593,10 @@
         <v>930</v>
       </c>
       <c r="E931" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F931" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G931" t="n">
         <v>1</v>
@@ -32592,10 +32622,10 @@
         <v>931</v>
       </c>
       <c r="E932" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="F932" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G932" t="n">
         <v>1</v>
@@ -32621,13 +32651,13 @@
         <v>932</v>
       </c>
       <c r="E933" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F933" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="G933" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H933" t="s">
         <v>4</v>
@@ -32650,10 +32680,10 @@
         <v>933</v>
       </c>
       <c r="E934" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F934" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="G934" t="n">
         <v>1</v>
@@ -32679,18 +32709,192 @@
         <v>934</v>
       </c>
       <c r="E935" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G935" t="n">
+        <v>1</v>
+      </c>
+      <c r="H935" t="s">
+        <v>4</v>
+      </c>
+      <c r="I935" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="s">
+        <v>0</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1</v>
+      </c>
+      <c r="D936" t="n">
+        <v>935</v>
+      </c>
+      <c r="E936" t="s">
         <v>1735</v>
       </c>
-      <c r="F935" t="s">
+      <c r="F936" t="s">
         <v>1736</v>
       </c>
-      <c r="G935" t="n">
-        <v>1</v>
-      </c>
-      <c r="H935" t="s">
-        <v>4</v>
-      </c>
-      <c r="I935" t="n">
+      <c r="G936" t="n">
+        <v>1</v>
+      </c>
+      <c r="H936" t="s">
+        <v>4</v>
+      </c>
+      <c r="I936" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="s">
+        <v>0</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1</v>
+      </c>
+      <c r="D937" t="n">
+        <v>936</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F937" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G937" t="n">
+        <v>1</v>
+      </c>
+      <c r="H937" t="s">
+        <v>4</v>
+      </c>
+      <c r="I937" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="s">
+        <v>0</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1</v>
+      </c>
+      <c r="D938" t="n">
+        <v>937</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G938" t="n">
+        <v>1</v>
+      </c>
+      <c r="H938" t="s">
+        <v>4</v>
+      </c>
+      <c r="I938" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="s">
+        <v>0</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1</v>
+      </c>
+      <c r="D939" t="n">
+        <v>938</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G939" t="n">
+        <v>1</v>
+      </c>
+      <c r="H939" t="s">
+        <v>4</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="s">
+        <v>0</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1</v>
+      </c>
+      <c r="D940" t="n">
+        <v>939</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F940" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G940" t="n">
+        <v>1</v>
+      </c>
+      <c r="H940" t="s">
+        <v>4</v>
+      </c>
+      <c r="I940" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="s">
+        <v>0</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1</v>
+      </c>
+      <c r="D941" t="n">
+        <v>940</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F941" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G941" t="n">
+        <v>1</v>
+      </c>
+      <c r="H941" t="s">
+        <v>4</v>
+      </c>
+      <c r="I941" t="n">
         <v>3</v>
       </c>
     </row>
